--- a/LF/TAS/STP/2024/sites.xlsx
+++ b/LF/TAS/STP/2024/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A5E949-612B-4C00-95E6-ECDD148EEF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497AA49-85EB-48E5-BB45-D601148EFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{352114B9-E526-4E03-A25A-4CF74A0F6C46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="132">
   <si>
     <t>No</t>
   </si>
@@ -422,9 +422,6 @@
     <t>CAUE-LEMBA</t>
   </si>
   <si>
-    <t>AQUA- GRANDE</t>
-  </si>
-  <si>
     <t>RIBEIRA AFONSO_1</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>RIBEIRA AFONSO_3</t>
+  </si>
+  <si>
+    <t>Code ID</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,11 +543,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -857,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF73F22-2422-4B83-8580-464ED3F59ECD}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,9 +880,14 @@
     <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -883,8 +900,26 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -897,8 +932,26 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -911,8 +964,26 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -925,8 +996,26 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>103</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -939,8 +1028,26 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -953,8 +1060,24 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="G6"/>
+      <c r="I6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -967,8 +1090,24 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>106</v>
+      </c>
+      <c r="G7"/>
+      <c r="I7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -981,8 +1120,19 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="G8"/>
+      <c r="J8" s="7"/>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -995,8 +1145,19 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1009,8 +1170,19 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="G10"/>
+      <c r="I10"/>
+      <c r="L10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1023,8 +1195,19 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="G11"/>
+      <c r="I11"/>
+      <c r="L11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1037,8 +1220,19 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>111</v>
+      </c>
+      <c r="G12"/>
+      <c r="I12"/>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1051,8 +1245,19 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>112</v>
+      </c>
+      <c r="G13"/>
+      <c r="I13"/>
+      <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1065,8 +1270,19 @@
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>113</v>
+      </c>
+      <c r="G14"/>
+      <c r="I14"/>
+      <c r="L14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1079,8 +1295,19 @@
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>114</v>
+      </c>
+      <c r="G15"/>
+      <c r="I15"/>
+      <c r="L15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1093,8 +1320,19 @@
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="G16"/>
+      <c r="I16"/>
+      <c r="L16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1107,8 +1345,19 @@
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>116</v>
+      </c>
+      <c r="G17"/>
+      <c r="I17"/>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1121,8 +1370,19 @@
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="G18"/>
+      <c r="I18"/>
+      <c r="L18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1135,8 +1395,19 @@
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>118</v>
+      </c>
+      <c r="G19"/>
+      <c r="I19"/>
+      <c r="L19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1149,8 +1420,19 @@
       <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>119</v>
+      </c>
+      <c r="G20"/>
+      <c r="I20"/>
+      <c r="L20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1163,8 +1445,19 @@
       <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="G21"/>
+      <c r="I21"/>
+      <c r="L21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1177,8 +1470,19 @@
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>121</v>
+      </c>
+      <c r="G22"/>
+      <c r="I22"/>
+      <c r="L22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1191,8 +1495,19 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>122</v>
+      </c>
+      <c r="G23"/>
+      <c r="I23"/>
+      <c r="L23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1205,8 +1520,19 @@
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>123</v>
+      </c>
+      <c r="G24"/>
+      <c r="I24"/>
+      <c r="L24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1219,8 +1545,19 @@
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>124</v>
+      </c>
+      <c r="G25"/>
+      <c r="I25"/>
+      <c r="L25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1233,8 +1570,19 @@
       <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>125</v>
+      </c>
+      <c r="G26"/>
+      <c r="I26"/>
+      <c r="L26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1247,8 +1595,19 @@
       <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>126</v>
+      </c>
+      <c r="G27"/>
+      <c r="I27"/>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1261,8 +1620,19 @@
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>127</v>
+      </c>
+      <c r="G28"/>
+      <c r="I28"/>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1275,8 +1645,19 @@
       <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>128</v>
+      </c>
+      <c r="G29"/>
+      <c r="I29"/>
+      <c r="L29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1289,8 +1670,19 @@
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>129</v>
+      </c>
+      <c r="G30"/>
+      <c r="I30"/>
+      <c r="L30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1303,8 +1695,19 @@
       <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>130</v>
+      </c>
+      <c r="G31"/>
+      <c r="I31"/>
+      <c r="L31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1312,13 +1715,24 @@
         <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>131</v>
+      </c>
+      <c r="G32"/>
+      <c r="I32"/>
+      <c r="L32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1326,13 +1740,24 @@
         <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>132</v>
+      </c>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="L33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1340,13 +1765,24 @@
         <v>126</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>133</v>
+      </c>
+      <c r="G34"/>
+      <c r="I34"/>
+      <c r="L34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -1354,13 +1790,24 @@
         <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>134</v>
+      </c>
+      <c r="G35"/>
+      <c r="I35"/>
+      <c r="L35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1368,13 +1815,24 @@
         <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>135</v>
+      </c>
+      <c r="G36"/>
+      <c r="I36"/>
+      <c r="L36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1382,13 +1840,24 @@
         <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>136</v>
+      </c>
+      <c r="G37"/>
+      <c r="I37"/>
+      <c r="L37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>7</v>
       </c>
@@ -1396,13 +1865,24 @@
         <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>137</v>
+      </c>
+      <c r="G38"/>
+      <c r="I38"/>
+      <c r="L38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>8</v>
       </c>
@@ -1410,13 +1890,24 @@
         <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>138</v>
+      </c>
+      <c r="G39"/>
+      <c r="I39"/>
+      <c r="L39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -1424,13 +1915,24 @@
         <v>126</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>139</v>
+      </c>
+      <c r="G40"/>
+      <c r="I40"/>
+      <c r="L40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1438,13 +1940,24 @@
         <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="G41"/>
+      <c r="I41"/>
+      <c r="L41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1452,13 +1965,24 @@
         <v>126</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>141</v>
+      </c>
+      <c r="G42"/>
+      <c r="I42"/>
+      <c r="L42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>12</v>
       </c>
@@ -1466,13 +1990,24 @@
         <v>126</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>142</v>
+      </c>
+      <c r="G43"/>
+      <c r="I43"/>
+      <c r="L43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>13</v>
       </c>
@@ -1480,13 +2015,24 @@
         <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>143</v>
+      </c>
+      <c r="G44"/>
+      <c r="I44"/>
+      <c r="L44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>14</v>
       </c>
@@ -1494,13 +2040,24 @@
         <v>126</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>144</v>
+      </c>
+      <c r="G45"/>
+      <c r="I45"/>
+      <c r="L45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -1508,13 +2065,24 @@
         <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>145</v>
+      </c>
+      <c r="G46"/>
+      <c r="I46"/>
+      <c r="L46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>16</v>
       </c>
@@ -1522,13 +2090,24 @@
         <v>126</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>146</v>
+      </c>
+      <c r="G47"/>
+      <c r="I47"/>
+      <c r="L47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>17</v>
       </c>
@@ -1536,13 +2115,24 @@
         <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>147</v>
+      </c>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="L48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>18</v>
       </c>
@@ -1550,13 +2140,24 @@
         <v>126</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>148</v>
+      </c>
+      <c r="G49"/>
+      <c r="I49"/>
+      <c r="L49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>19</v>
       </c>
@@ -1564,13 +2165,24 @@
         <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>149</v>
+      </c>
+      <c r="G50"/>
+      <c r="I50"/>
+      <c r="L50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -1578,13 +2190,24 @@
         <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="G51"/>
+      <c r="I51"/>
+      <c r="L51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -1592,13 +2215,24 @@
         <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>151</v>
+      </c>
+      <c r="G52"/>
+      <c r="I52"/>
+      <c r="L52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>22</v>
       </c>
@@ -1606,13 +2240,24 @@
         <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>152</v>
+      </c>
+      <c r="G53"/>
+      <c r="I53"/>
+      <c r="L53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -1620,13 +2265,24 @@
         <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>153</v>
+      </c>
+      <c r="G54"/>
+      <c r="I54"/>
+      <c r="L54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -1634,13 +2290,24 @@
         <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>154</v>
+      </c>
+      <c r="G55"/>
+      <c r="I55"/>
+      <c r="L55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -1648,13 +2315,24 @@
         <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>155</v>
+      </c>
+      <c r="G56"/>
+      <c r="I56"/>
+      <c r="L56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>26</v>
       </c>
@@ -1662,13 +2340,24 @@
         <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>156</v>
+      </c>
+      <c r="G57"/>
+      <c r="I57"/>
+      <c r="L57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>27</v>
       </c>
@@ -1676,13 +2365,24 @@
         <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>157</v>
+      </c>
+      <c r="G58"/>
+      <c r="I58"/>
+      <c r="L58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>28</v>
       </c>
@@ -1690,13 +2390,24 @@
         <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>158</v>
+      </c>
+      <c r="G59"/>
+      <c r="I59"/>
+      <c r="L59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>29</v>
       </c>
@@ -1704,13 +2415,24 @@
         <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>159</v>
+      </c>
+      <c r="G60"/>
+      <c r="I60"/>
+      <c r="L60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>30</v>
       </c>
@@ -1718,13 +2440,24 @@
         <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>160</v>
+      </c>
+      <c r="G61"/>
+      <c r="I61"/>
+      <c r="L61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -1737,8 +2470,19 @@
       <c r="D62" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>161</v>
+      </c>
+      <c r="G62"/>
+      <c r="I62"/>
+      <c r="L62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -1751,8 +2495,19 @@
       <c r="D63" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>162</v>
+      </c>
+      <c r="G63"/>
+      <c r="I63"/>
+      <c r="L63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -1765,8 +2520,19 @@
       <c r="D64" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>163</v>
+      </c>
+      <c r="G64"/>
+      <c r="I64"/>
+      <c r="L64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -1779,8 +2545,19 @@
       <c r="D65" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>164</v>
+      </c>
+      <c r="G65"/>
+      <c r="I65"/>
+      <c r="L65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -1793,8 +2570,19 @@
       <c r="D66" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>165</v>
+      </c>
+      <c r="G66"/>
+      <c r="I66"/>
+      <c r="L66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>6</v>
       </c>
@@ -1807,8 +2595,19 @@
       <c r="D67" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>166</v>
+      </c>
+      <c r="G67"/>
+      <c r="I67"/>
+      <c r="L67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -1821,8 +2620,19 @@
       <c r="D68" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>167</v>
+      </c>
+      <c r="G68"/>
+      <c r="I68"/>
+      <c r="L68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -1835,8 +2645,19 @@
       <c r="D69" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>168</v>
+      </c>
+      <c r="G69"/>
+      <c r="I69"/>
+      <c r="L69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>9</v>
       </c>
@@ -1849,8 +2670,19 @@
       <c r="D70" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>169</v>
+      </c>
+      <c r="G70"/>
+      <c r="I70"/>
+      <c r="L70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>10</v>
       </c>
@@ -1863,8 +2695,19 @@
       <c r="D71" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>170</v>
+      </c>
+      <c r="G71"/>
+      <c r="I71"/>
+      <c r="L71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>11</v>
       </c>
@@ -1877,8 +2720,19 @@
       <c r="D72" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>171</v>
+      </c>
+      <c r="G72"/>
+      <c r="I72"/>
+      <c r="L72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>12</v>
       </c>
@@ -1891,8 +2745,19 @@
       <c r="D73" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>172</v>
+      </c>
+      <c r="G73"/>
+      <c r="I73"/>
+      <c r="L73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>13</v>
       </c>
@@ -1905,8 +2770,19 @@
       <c r="D74" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>173</v>
+      </c>
+      <c r="G74"/>
+      <c r="I74"/>
+      <c r="L74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>14</v>
       </c>
@@ -1919,8 +2795,19 @@
       <c r="D75" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>174</v>
+      </c>
+      <c r="G75"/>
+      <c r="I75"/>
+      <c r="L75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>15</v>
       </c>
@@ -1933,8 +2820,19 @@
       <c r="D76" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>175</v>
+      </c>
+      <c r="G76"/>
+      <c r="I76"/>
+      <c r="L76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>16</v>
       </c>
@@ -1947,8 +2845,19 @@
       <c r="D77" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>176</v>
+      </c>
+      <c r="G77"/>
+      <c r="I77"/>
+      <c r="L77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>17</v>
       </c>
@@ -1961,8 +2870,19 @@
       <c r="D78" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>177</v>
+      </c>
+      <c r="G78"/>
+      <c r="I78"/>
+      <c r="L78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>18</v>
       </c>
@@ -1975,8 +2895,19 @@
       <c r="D79" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>178</v>
+      </c>
+      <c r="G79"/>
+      <c r="I79"/>
+      <c r="L79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>19</v>
       </c>
@@ -1989,8 +2920,19 @@
       <c r="D80" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>179</v>
+      </c>
+      <c r="G80"/>
+      <c r="I80"/>
+      <c r="L80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>20</v>
       </c>
@@ -2003,8 +2945,19 @@
       <c r="D81" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>180</v>
+      </c>
+      <c r="G81"/>
+      <c r="I81"/>
+      <c r="L81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>21</v>
       </c>
@@ -2017,8 +2970,19 @@
       <c r="D82" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>181</v>
+      </c>
+      <c r="G82"/>
+      <c r="I82"/>
+      <c r="L82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>22</v>
       </c>
@@ -2031,8 +2995,19 @@
       <c r="D83" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>182</v>
+      </c>
+      <c r="G83"/>
+      <c r="I83"/>
+      <c r="L83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>23</v>
       </c>
@@ -2045,8 +3020,19 @@
       <c r="D84" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>183</v>
+      </c>
+      <c r="G84"/>
+      <c r="I84"/>
+      <c r="L84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>24</v>
       </c>
@@ -2059,8 +3045,19 @@
       <c r="D85" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>184</v>
+      </c>
+      <c r="G85"/>
+      <c r="I85"/>
+      <c r="L85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>25</v>
       </c>
@@ -2073,8 +3070,19 @@
       <c r="D86" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>185</v>
+      </c>
+      <c r="G86"/>
+      <c r="I86"/>
+      <c r="L86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>26</v>
       </c>
@@ -2087,8 +3095,19 @@
       <c r="D87" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>186</v>
+      </c>
+      <c r="G87"/>
+      <c r="I87"/>
+      <c r="L87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>27</v>
       </c>
@@ -2101,8 +3120,19 @@
       <c r="D88" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>187</v>
+      </c>
+      <c r="G88"/>
+      <c r="I88"/>
+      <c r="L88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>28</v>
       </c>
@@ -2115,8 +3145,19 @@
       <c r="D89" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>188</v>
+      </c>
+      <c r="G89"/>
+      <c r="I89"/>
+      <c r="L89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>29</v>
       </c>
@@ -2129,8 +3170,19 @@
       <c r="D90" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>189</v>
+      </c>
+      <c r="G90"/>
+      <c r="I90"/>
+      <c r="L90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>30</v>
       </c>
@@ -2143,8 +3195,19 @@
       <c r="D91" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>190</v>
+      </c>
+      <c r="G91"/>
+      <c r="I91"/>
+      <c r="L91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -2157,8 +3220,19 @@
       <c r="D92" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>191</v>
+      </c>
+      <c r="G92"/>
+      <c r="I92"/>
+      <c r="L92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -2171,8 +3245,19 @@
       <c r="D93" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>192</v>
+      </c>
+      <c r="G93"/>
+      <c r="I93"/>
+      <c r="L93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -2185,8 +3270,19 @@
       <c r="D94" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>193</v>
+      </c>
+      <c r="G94"/>
+      <c r="I94"/>
+      <c r="L94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -2199,8 +3295,19 @@
       <c r="D95" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>194</v>
+      </c>
+      <c r="G95"/>
+      <c r="I95"/>
+      <c r="L95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>5</v>
       </c>
@@ -2213,8 +3320,19 @@
       <c r="D96" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>195</v>
+      </c>
+      <c r="G96"/>
+      <c r="I96"/>
+      <c r="L96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>6</v>
       </c>
@@ -2227,8 +3345,19 @@
       <c r="D97" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>196</v>
+      </c>
+      <c r="G97"/>
+      <c r="I97"/>
+      <c r="L97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>7</v>
       </c>
@@ -2241,8 +3370,19 @@
       <c r="D98" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>197</v>
+      </c>
+      <c r="G98"/>
+      <c r="I98"/>
+      <c r="L98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>8</v>
       </c>
@@ -2255,8 +3395,19 @@
       <c r="D99" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>198</v>
+      </c>
+      <c r="G99"/>
+      <c r="I99"/>
+      <c r="L99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>9</v>
       </c>
@@ -2269,8 +3420,19 @@
       <c r="D100" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>199</v>
+      </c>
+      <c r="G100"/>
+      <c r="I100"/>
+      <c r="L100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>10</v>
       </c>
@@ -2283,8 +3445,19 @@
       <c r="D101" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>200</v>
+      </c>
+      <c r="G101"/>
+      <c r="I101"/>
+      <c r="L101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>11</v>
       </c>
@@ -2297,8 +3470,19 @@
       <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>201</v>
+      </c>
+      <c r="G102"/>
+      <c r="I102"/>
+      <c r="L102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>12</v>
       </c>
@@ -2311,8 +3495,19 @@
       <c r="D103" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>202</v>
+      </c>
+      <c r="G103"/>
+      <c r="I103"/>
+      <c r="L103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>13</v>
       </c>
@@ -2325,8 +3520,19 @@
       <c r="D104" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>203</v>
+      </c>
+      <c r="G104"/>
+      <c r="I104"/>
+      <c r="L104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>14</v>
       </c>
@@ -2339,8 +3545,19 @@
       <c r="D105" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>204</v>
+      </c>
+      <c r="G105"/>
+      <c r="I105"/>
+      <c r="L105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>15</v>
       </c>
@@ -2353,8 +3570,19 @@
       <c r="D106" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>205</v>
+      </c>
+      <c r="G106"/>
+      <c r="I106"/>
+      <c r="L106" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>16</v>
       </c>
@@ -2367,8 +3595,19 @@
       <c r="D107" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>206</v>
+      </c>
+      <c r="G107"/>
+      <c r="I107"/>
+      <c r="L107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>17</v>
       </c>
@@ -2381,8 +3620,19 @@
       <c r="D108" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>207</v>
+      </c>
+      <c r="G108"/>
+      <c r="I108"/>
+      <c r="L108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>18</v>
       </c>
@@ -2395,8 +3645,19 @@
       <c r="D109" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>208</v>
+      </c>
+      <c r="G109"/>
+      <c r="I109"/>
+      <c r="L109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>19</v>
       </c>
@@ -2409,8 +3670,19 @@
       <c r="D110" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>209</v>
+      </c>
+      <c r="G110"/>
+      <c r="I110"/>
+      <c r="L110" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>20</v>
       </c>
@@ -2423,8 +3695,19 @@
       <c r="D111" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>210</v>
+      </c>
+      <c r="G111"/>
+      <c r="I111"/>
+      <c r="L111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>21</v>
       </c>
@@ -2437,8 +3720,19 @@
       <c r="D112" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>211</v>
+      </c>
+      <c r="G112"/>
+      <c r="I112"/>
+      <c r="L112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>22</v>
       </c>
@@ -2451,8 +3745,19 @@
       <c r="D113" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>212</v>
+      </c>
+      <c r="G113"/>
+      <c r="I113"/>
+      <c r="L113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>23</v>
       </c>
@@ -2463,10 +3768,21 @@
         <v>97</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114">
+        <v>213</v>
+      </c>
+      <c r="G114"/>
+      <c r="I114"/>
+      <c r="L114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M114" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>24</v>
       </c>
@@ -2477,10 +3793,21 @@
         <v>97</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E115">
+        <v>214</v>
+      </c>
+      <c r="G115"/>
+      <c r="I115"/>
+      <c r="L115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M115" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>25</v>
       </c>
@@ -2491,10 +3818,21 @@
         <v>97</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="E116">
+        <v>215</v>
+      </c>
+      <c r="G116"/>
+      <c r="I116"/>
+      <c r="L116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>26</v>
       </c>
@@ -2507,8 +3845,19 @@
       <c r="D117" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>216</v>
+      </c>
+      <c r="G117"/>
+      <c r="I117"/>
+      <c r="L117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>27</v>
       </c>
@@ -2521,8 +3870,19 @@
       <c r="D118" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>217</v>
+      </c>
+      <c r="G118"/>
+      <c r="I118"/>
+      <c r="L118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>28</v>
       </c>
@@ -2535,8 +3895,19 @@
       <c r="D119" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>218</v>
+      </c>
+      <c r="G119"/>
+      <c r="I119"/>
+      <c r="L119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>29</v>
       </c>
@@ -2549,8 +3920,19 @@
       <c r="D120" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>219</v>
+      </c>
+      <c r="G120"/>
+      <c r="I120"/>
+      <c r="L120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>30</v>
       </c>
@@ -2563,8 +3945,25 @@
       <c r="D121" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E121">
+        <v>220</v>
+      </c>
+      <c r="G121"/>
+      <c r="I121"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I122"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J122">
+    <sortCondition ref="I2:I122"/>
+    <sortCondition ref="J2:J122"/>
+  </sortState>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LF/TAS/STP/2024/sites.xlsx
+++ b/LF/TAS/STP/2024/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497AA49-85EB-48E5-BB45-D601148EFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DB44B-03E2-481E-AB42-2976EE7FB8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{352114B9-E526-4E03-A25A-4CF74A0F6C46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -432,6 +432,147 @@
   </si>
   <si>
     <t>Code ID</t>
+  </si>
+  <si>
+    <t>PRINCIPE</t>
+  </si>
+  <si>
+    <t>ABADE</t>
+  </si>
+  <si>
+    <t>AEROPORTO</t>
+  </si>
+  <si>
+    <t>ÁGUA DOUTOR</t>
+  </si>
+  <si>
+    <t>ÁGUA ESCADA</t>
+  </si>
+  <si>
+    <t>ÁGUA NAMORO + SAO JOAO</t>
+  </si>
+  <si>
+    <t>AZEITONA</t>
+  </si>
+  <si>
+    <t>BARACÃO</t>
+  </si>
+  <si>
+    <t>BELA VISTA</t>
+  </si>
+  <si>
+    <t>BELO MONTE</t>
+  </si>
+  <si>
+    <t>BUDO BUDO (P.REAL)</t>
+  </si>
+  <si>
+    <t>CAMINHO S.MATEUS</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>CHIMALO</t>
+  </si>
+  <si>
+    <t>ESTALEIRO +QUINTAL STO ANTONIO</t>
+  </si>
+  <si>
+    <t>HOSPITAL VELHO</t>
+  </si>
+  <si>
+    <t>LENTAPIA</t>
+  </si>
+  <si>
+    <t>MONTA ALEGRE (PRINCIPE)</t>
+  </si>
+  <si>
+    <t>NOVA ESTRELA</t>
+  </si>
+  <si>
+    <t>OQUE DANIEL</t>
+  </si>
+  <si>
+    <t>OQUE GASPAR</t>
+  </si>
+  <si>
+    <t>OQUE PONTE</t>
+  </si>
+  <si>
+    <t>PACIENCIA</t>
+  </si>
+  <si>
+    <t>PICÃO</t>
+  </si>
+  <si>
+    <t>PINQUETE</t>
+  </si>
+  <si>
+    <t>PONTA DO SOL</t>
+  </si>
+  <si>
+    <t>PONTA FORTE</t>
+  </si>
+  <si>
+    <t>PORTINHO</t>
+  </si>
+  <si>
+    <t>PORTO REAL</t>
+  </si>
+  <si>
+    <t>PRAIA COMPAINHA</t>
+  </si>
+  <si>
+    <t>PRAIA DA LAPA</t>
+  </si>
+  <si>
+    <t>PRAIA DAS BURRAS</t>
+  </si>
+  <si>
+    <t>P. STO ANTONIO</t>
+  </si>
+  <si>
+    <t>PRAIA INHAME</t>
+  </si>
+  <si>
+    <t>PRAIA MARGARIDA</t>
+  </si>
+  <si>
+    <t>PRAIA SECA</t>
+  </si>
+  <si>
+    <t>RUA FELIZ</t>
+  </si>
+  <si>
+    <t>SANTA RITA</t>
+  </si>
+  <si>
+    <t>SANTO ANTONIO II</t>
+  </si>
+  <si>
+    <t>SANTO CRISTO</t>
+  </si>
+  <si>
+    <t>SÃO JOAQUIM</t>
+  </si>
+  <si>
+    <t>SÃO MATEUS</t>
+  </si>
+  <si>
+    <t>SUNDY</t>
+  </si>
+  <si>
+    <t>TCHADA</t>
+  </si>
+  <si>
+    <t>TERREIRO VELHO</t>
+  </si>
+  <si>
+    <t>TRABALHADORES</t>
+  </si>
+  <si>
+    <t>UBA CAJU</t>
   </si>
 </sst>
 </file>
@@ -548,7 +689,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -869,10 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF73F22-2422-4B83-8580-464ED3F59ECD}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +1107,10 @@
         <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,10 +1139,10 @@
         <v>97</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1009,10 +1171,10 @@
         <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1041,10 +1203,10 @@
         <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,7 +1225,9 @@
       <c r="E6">
         <v>105</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="I6" s="4" t="s">
         <v>125</v>
       </c>
@@ -1071,10 +1235,10 @@
         <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1093,7 +1257,6 @@
       <c r="E7">
         <v>106</v>
       </c>
-      <c r="G7"/>
       <c r="I7" s="4" t="s">
         <v>125</v>
       </c>
@@ -1101,10 +1264,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,12 +1287,17 @@
         <v>107</v>
       </c>
       <c r="G8"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="L8" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1149,12 +1317,12 @@
         <v>108</v>
       </c>
       <c r="G9"/>
-      <c r="I9"/>
+      <c r="J9" s="7"/>
       <c r="L9" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1176,10 +1344,10 @@
       <c r="G10"/>
       <c r="I10"/>
       <c r="L10" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,10 +1369,10 @@
       <c r="G11"/>
       <c r="I11"/>
       <c r="L11" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1226,10 +1394,10 @@
       <c r="G12"/>
       <c r="I12"/>
       <c r="L12" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,10 +1419,10 @@
       <c r="G13"/>
       <c r="I13"/>
       <c r="L13" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,10 +1444,10 @@
       <c r="G14"/>
       <c r="I14"/>
       <c r="L14" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1301,10 +1469,10 @@
       <c r="G15"/>
       <c r="I15"/>
       <c r="L15" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,10 +1494,10 @@
       <c r="G16"/>
       <c r="I16"/>
       <c r="L16" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,10 +1519,10 @@
       <c r="G17"/>
       <c r="I17"/>
       <c r="L17" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,10 +1544,10 @@
       <c r="G18"/>
       <c r="I18"/>
       <c r="L18" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,10 +1569,10 @@
       <c r="G19"/>
       <c r="I19"/>
       <c r="L19" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,10 +1594,10 @@
       <c r="G20"/>
       <c r="I20"/>
       <c r="L20" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,10 +1619,10 @@
       <c r="G21"/>
       <c r="I21"/>
       <c r="L21" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,10 +1644,10 @@
       <c r="G22"/>
       <c r="I22"/>
       <c r="L22" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1658,7 @@
         <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>25</v>
@@ -1501,10 +1669,10 @@
       <c r="G23"/>
       <c r="I23"/>
       <c r="L23" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1515,7 +1683,7 @@
         <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
@@ -1526,10 +1694,10 @@
       <c r="G24"/>
       <c r="I24"/>
       <c r="L24" s="2" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,10 +1719,10 @@
       <c r="G25"/>
       <c r="I25"/>
       <c r="L25" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1576,10 +1744,10 @@
       <c r="G26"/>
       <c r="I26"/>
       <c r="L26" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1601,10 +1769,10 @@
       <c r="G27"/>
       <c r="I27"/>
       <c r="L27" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,10 +1794,10 @@
       <c r="G28"/>
       <c r="I28"/>
       <c r="L28" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1651,10 +1819,10 @@
       <c r="G29"/>
       <c r="I29"/>
       <c r="L29" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1676,10 +1844,10 @@
       <c r="G30"/>
       <c r="I30"/>
       <c r="L30" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1701,10 +1869,10 @@
       <c r="G31"/>
       <c r="I31"/>
       <c r="L31" s="2" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1894,10 @@
       <c r="G32"/>
       <c r="I32"/>
       <c r="L32" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1751,10 +1919,10 @@
       <c r="G33"/>
       <c r="I33"/>
       <c r="L33" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1776,10 +1944,10 @@
       <c r="G34"/>
       <c r="I34"/>
       <c r="L34" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1801,10 +1969,10 @@
       <c r="G35"/>
       <c r="I35"/>
       <c r="L35" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1826,10 +1994,10 @@
       <c r="G36"/>
       <c r="I36"/>
       <c r="L36" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1851,10 +2019,10 @@
       <c r="G37"/>
       <c r="I37"/>
       <c r="L37" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,10 +2044,10 @@
       <c r="G38"/>
       <c r="I38"/>
       <c r="L38" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1901,10 +2069,10 @@
       <c r="G39"/>
       <c r="I39"/>
       <c r="L39" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1926,10 +2094,10 @@
       <c r="G40"/>
       <c r="I40"/>
       <c r="L40" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1951,10 +2119,10 @@
       <c r="G41"/>
       <c r="I41"/>
       <c r="L41" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1976,10 +2144,10 @@
       <c r="G42"/>
       <c r="I42"/>
       <c r="L42" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2001,10 +2169,10 @@
       <c r="G43"/>
       <c r="I43"/>
       <c r="L43" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2026,10 +2194,10 @@
       <c r="G44"/>
       <c r="I44"/>
       <c r="L44" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2051,10 +2219,10 @@
       <c r="G45"/>
       <c r="I45"/>
       <c r="L45" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2076,10 +2244,10 @@
       <c r="G46"/>
       <c r="I46"/>
       <c r="L46" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2101,10 +2269,10 @@
       <c r="G47"/>
       <c r="I47"/>
       <c r="L47" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2126,10 +2294,10 @@
       <c r="G48"/>
       <c r="I48"/>
       <c r="L48" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2151,10 +2319,10 @@
       <c r="G49"/>
       <c r="I49"/>
       <c r="L49" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,10 +2344,10 @@
       <c r="G50"/>
       <c r="I50"/>
       <c r="L50" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2369,10 @@
       <c r="G51"/>
       <c r="I51"/>
       <c r="L51" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,10 +2394,10 @@
       <c r="G52"/>
       <c r="I52"/>
       <c r="L52" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2251,10 +2419,10 @@
       <c r="G53"/>
       <c r="I53"/>
       <c r="L53" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2276,10 +2444,10 @@
       <c r="G54"/>
       <c r="I54"/>
       <c r="L54" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,10 +2469,10 @@
       <c r="G55"/>
       <c r="I55"/>
       <c r="L55" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2326,10 +2494,10 @@
       <c r="G56"/>
       <c r="I56"/>
       <c r="L56" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2351,10 +2519,10 @@
       <c r="G57"/>
       <c r="I57"/>
       <c r="L57" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2376,10 +2544,10 @@
       <c r="G58"/>
       <c r="I58"/>
       <c r="L58" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2401,10 +2569,10 @@
       <c r="G59"/>
       <c r="I59"/>
       <c r="L59" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2426,10 +2594,10 @@
       <c r="G60"/>
       <c r="I60"/>
       <c r="L60" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2451,10 +2619,10 @@
       <c r="G61"/>
       <c r="I61"/>
       <c r="L61" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2779,7 +2947,7 @@
         <v>76</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2804,7 +2972,7 @@
         <v>76</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2829,7 +2997,7 @@
         <v>76</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3201,10 +3369,10 @@
       <c r="G91"/>
       <c r="I91"/>
       <c r="L91" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3226,10 +3394,10 @@
       <c r="G92"/>
       <c r="I92"/>
       <c r="L92" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3251,10 +3419,10 @@
       <c r="G93"/>
       <c r="I93"/>
       <c r="L93" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3276,10 +3444,10 @@
       <c r="G94"/>
       <c r="I94"/>
       <c r="L94" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,10 +3469,10 @@
       <c r="G95"/>
       <c r="I95"/>
       <c r="L95" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3326,10 +3494,10 @@
       <c r="G96"/>
       <c r="I96"/>
       <c r="L96" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3351,10 +3519,10 @@
       <c r="G97"/>
       <c r="I97"/>
       <c r="L97" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3376,10 +3544,10 @@
       <c r="G98"/>
       <c r="I98"/>
       <c r="L98" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3401,10 +3569,10 @@
       <c r="G99"/>
       <c r="I99"/>
       <c r="L99" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3426,10 +3594,10 @@
       <c r="G100"/>
       <c r="I100"/>
       <c r="L100" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3451,10 +3619,10 @@
       <c r="G101"/>
       <c r="I101"/>
       <c r="L101" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,10 +3644,10 @@
       <c r="G102"/>
       <c r="I102"/>
       <c r="L102" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3501,10 +3669,10 @@
       <c r="G103"/>
       <c r="I103"/>
       <c r="L103" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,10 +3694,10 @@
       <c r="G104"/>
       <c r="I104"/>
       <c r="L104" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3551,10 +3719,10 @@
       <c r="G105"/>
       <c r="I105"/>
       <c r="L105" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3576,10 +3744,10 @@
       <c r="G106"/>
       <c r="I106"/>
       <c r="L106" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3601,10 +3769,10 @@
       <c r="G107"/>
       <c r="I107"/>
       <c r="L107" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3626,10 +3794,10 @@
       <c r="G108"/>
       <c r="I108"/>
       <c r="L108" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3651,10 +3819,10 @@
       <c r="G109"/>
       <c r="I109"/>
       <c r="L109" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3676,10 +3844,10 @@
       <c r="G110"/>
       <c r="I110"/>
       <c r="L110" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3701,10 +3869,10 @@
       <c r="G111"/>
       <c r="I111"/>
       <c r="L111" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3726,10 +3894,10 @@
       <c r="G112"/>
       <c r="I112"/>
       <c r="L112" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3751,10 +3919,10 @@
       <c r="G113"/>
       <c r="I113"/>
       <c r="L113" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3776,10 +3944,10 @@
       <c r="G114"/>
       <c r="I114"/>
       <c r="L114" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3801,10 +3969,10 @@
       <c r="G115"/>
       <c r="I115"/>
       <c r="L115" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3826,10 +3994,10 @@
       <c r="G116"/>
       <c r="I116"/>
       <c r="L116" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3851,10 +4019,10 @@
       <c r="G117"/>
       <c r="I117"/>
       <c r="L117" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3876,10 +4044,10 @@
       <c r="G118"/>
       <c r="I118"/>
       <c r="L118" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3901,10 +4069,10 @@
       <c r="G119"/>
       <c r="I119"/>
       <c r="L119" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3926,10 +4094,10 @@
       <c r="G120"/>
       <c r="I120"/>
       <c r="L120" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3950,18 +4118,1173 @@
       </c>
       <c r="G121"/>
       <c r="I121"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
+      <c r="L121" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122">
+        <v>221</v>
+      </c>
+      <c r="G122"/>
       <c r="I122"/>
+      <c r="L122" t="s">
+        <v>132</v>
+      </c>
+      <c r="M122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123">
+        <v>222</v>
+      </c>
+      <c r="G123"/>
+      <c r="I123"/>
+      <c r="L123" t="s">
+        <v>132</v>
+      </c>
+      <c r="M123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124">
+        <v>223</v>
+      </c>
+      <c r="G124"/>
+      <c r="I124"/>
+      <c r="L124" t="s">
+        <v>132</v>
+      </c>
+      <c r="M124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125">
+        <v>224</v>
+      </c>
+      <c r="G125"/>
+      <c r="I125"/>
+      <c r="L125" t="s">
+        <v>132</v>
+      </c>
+      <c r="M125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126">
+        <v>225</v>
+      </c>
+      <c r="G126"/>
+      <c r="I126"/>
+      <c r="L126" t="s">
+        <v>132</v>
+      </c>
+      <c r="M126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127">
+        <v>226</v>
+      </c>
+      <c r="G127"/>
+      <c r="I127"/>
+      <c r="L127" t="s">
+        <v>132</v>
+      </c>
+      <c r="M127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128">
+        <v>227</v>
+      </c>
+      <c r="G128"/>
+      <c r="I128"/>
+      <c r="L128" t="s">
+        <v>132</v>
+      </c>
+      <c r="M128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129">
+        <v>228</v>
+      </c>
+      <c r="G129"/>
+      <c r="I129"/>
+      <c r="L129" t="s">
+        <v>132</v>
+      </c>
+      <c r="M129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130">
+        <v>229</v>
+      </c>
+      <c r="G130"/>
+      <c r="I130"/>
+      <c r="L130" t="s">
+        <v>132</v>
+      </c>
+      <c r="M130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131">
+        <v>230</v>
+      </c>
+      <c r="G131"/>
+      <c r="I131"/>
+      <c r="L131" t="s">
+        <v>132</v>
+      </c>
+      <c r="M131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>132</v>
+      </c>
+      <c r="D132" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132">
+        <v>231</v>
+      </c>
+      <c r="G132"/>
+      <c r="I132"/>
+      <c r="L132" t="s">
+        <v>132</v>
+      </c>
+      <c r="M132" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" t="s">
+        <v>144</v>
+      </c>
+      <c r="E133">
+        <v>232</v>
+      </c>
+      <c r="G133"/>
+      <c r="I133"/>
+      <c r="L133" t="s">
+        <v>132</v>
+      </c>
+      <c r="M133" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>132</v>
+      </c>
+      <c r="D134" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134">
+        <v>233</v>
+      </c>
+      <c r="G134"/>
+      <c r="I134"/>
+      <c r="L134" t="s">
+        <v>132</v>
+      </c>
+      <c r="M134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>132</v>
+      </c>
+      <c r="D135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135">
+        <v>234</v>
+      </c>
+      <c r="G135"/>
+      <c r="I135"/>
+      <c r="L135" t="s">
+        <v>132</v>
+      </c>
+      <c r="M135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136">
+        <v>235</v>
+      </c>
+      <c r="G136"/>
+      <c r="I136"/>
+      <c r="L136" t="s">
+        <v>132</v>
+      </c>
+      <c r="M136" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" t="s">
+        <v>132</v>
+      </c>
+      <c r="D137" t="s">
+        <v>148</v>
+      </c>
+      <c r="E137">
+        <v>236</v>
+      </c>
+      <c r="G137"/>
+      <c r="I137"/>
+      <c r="L137" t="s">
+        <v>132</v>
+      </c>
+      <c r="M137" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138">
+        <v>237</v>
+      </c>
+      <c r="G138"/>
+      <c r="I138"/>
+      <c r="L138" t="s">
+        <v>132</v>
+      </c>
+      <c r="M138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>18</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" t="s">
+        <v>132</v>
+      </c>
+      <c r="D139" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139">
+        <v>238</v>
+      </c>
+      <c r="G139"/>
+      <c r="I139"/>
+      <c r="L139" t="s">
+        <v>132</v>
+      </c>
+      <c r="M139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>19</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" t="s">
+        <v>132</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140">
+        <v>239</v>
+      </c>
+      <c r="G140"/>
+      <c r="I140"/>
+      <c r="L140" t="s">
+        <v>132</v>
+      </c>
+      <c r="M140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" t="s">
+        <v>132</v>
+      </c>
+      <c r="D141" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141">
+        <v>240</v>
+      </c>
+      <c r="G141"/>
+      <c r="I141"/>
+      <c r="L141" t="s">
+        <v>132</v>
+      </c>
+      <c r="M141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>21</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142">
+        <v>241</v>
+      </c>
+      <c r="G142"/>
+      <c r="I142"/>
+      <c r="L142" t="s">
+        <v>132</v>
+      </c>
+      <c r="M142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>22</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143">
+        <v>242</v>
+      </c>
+      <c r="G143"/>
+      <c r="I143"/>
+      <c r="L143" t="s">
+        <v>132</v>
+      </c>
+      <c r="M143" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>23</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144">
+        <v>243</v>
+      </c>
+      <c r="G144"/>
+      <c r="I144"/>
+      <c r="L144" t="s">
+        <v>132</v>
+      </c>
+      <c r="M144" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>24</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" t="s">
+        <v>132</v>
+      </c>
+      <c r="D145" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145">
+        <v>244</v>
+      </c>
+      <c r="G145"/>
+      <c r="I145"/>
+      <c r="L145" t="s">
+        <v>132</v>
+      </c>
+      <c r="M145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>25</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" t="s">
+        <v>132</v>
+      </c>
+      <c r="D146" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146">
+        <v>245</v>
+      </c>
+      <c r="G146"/>
+      <c r="I146"/>
+      <c r="L146" t="s">
+        <v>132</v>
+      </c>
+      <c r="M146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>26</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
+        <v>132</v>
+      </c>
+      <c r="D147" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147">
+        <v>246</v>
+      </c>
+      <c r="G147"/>
+      <c r="I147"/>
+      <c r="L147" t="s">
+        <v>132</v>
+      </c>
+      <c r="M147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>27</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148">
+        <v>247</v>
+      </c>
+      <c r="G148"/>
+      <c r="I148"/>
+      <c r="L148" t="s">
+        <v>132</v>
+      </c>
+      <c r="M148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>28</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" t="s">
+        <v>132</v>
+      </c>
+      <c r="D149" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149">
+        <v>248</v>
+      </c>
+      <c r="G149"/>
+      <c r="I149"/>
+      <c r="L149" t="s">
+        <v>132</v>
+      </c>
+      <c r="M149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>29</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" t="s">
+        <v>132</v>
+      </c>
+      <c r="D150" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150">
+        <v>249</v>
+      </c>
+      <c r="G150"/>
+      <c r="I150"/>
+      <c r="L150" t="s">
+        <v>132</v>
+      </c>
+      <c r="M150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" t="s">
+        <v>132</v>
+      </c>
+      <c r="D151" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151">
+        <v>250</v>
+      </c>
+      <c r="G151"/>
+      <c r="I151"/>
+      <c r="L151" t="s">
+        <v>132</v>
+      </c>
+      <c r="M151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>31</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152">
+        <v>251</v>
+      </c>
+      <c r="G152"/>
+      <c r="I152"/>
+      <c r="L152" t="s">
+        <v>132</v>
+      </c>
+      <c r="M152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>32</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" t="s">
+        <v>164</v>
+      </c>
+      <c r="E153">
+        <v>252</v>
+      </c>
+      <c r="G153"/>
+      <c r="I153"/>
+      <c r="L153" t="s">
+        <v>132</v>
+      </c>
+      <c r="M153" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>33</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154">
+        <v>253</v>
+      </c>
+      <c r="G154"/>
+      <c r="I154"/>
+      <c r="L154" t="s">
+        <v>132</v>
+      </c>
+      <c r="M154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>34</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E155">
+        <v>254</v>
+      </c>
+      <c r="G155"/>
+      <c r="I155"/>
+      <c r="L155" t="s">
+        <v>132</v>
+      </c>
+      <c r="M155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>35</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156">
+        <v>255</v>
+      </c>
+      <c r="G156"/>
+      <c r="I156"/>
+      <c r="L156" t="s">
+        <v>132</v>
+      </c>
+      <c r="M156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>36</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157">
+        <v>256</v>
+      </c>
+      <c r="G157"/>
+      <c r="I157"/>
+      <c r="L157" t="s">
+        <v>132</v>
+      </c>
+      <c r="M157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>37</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" t="s">
+        <v>132</v>
+      </c>
+      <c r="D158" t="s">
+        <v>169</v>
+      </c>
+      <c r="E158">
+        <v>257</v>
+      </c>
+      <c r="G158"/>
+      <c r="I158"/>
+      <c r="L158" t="s">
+        <v>132</v>
+      </c>
+      <c r="M158" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>38</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" t="s">
+        <v>132</v>
+      </c>
+      <c r="D159" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159">
+        <v>258</v>
+      </c>
+      <c r="G159"/>
+      <c r="I159"/>
+      <c r="L159" t="s">
+        <v>132</v>
+      </c>
+      <c r="M159" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>39</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" t="s">
+        <v>171</v>
+      </c>
+      <c r="E160">
+        <v>259</v>
+      </c>
+      <c r="G160"/>
+      <c r="I160"/>
+      <c r="L160" t="s">
+        <v>132</v>
+      </c>
+      <c r="M160" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>40</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" t="s">
+        <v>172</v>
+      </c>
+      <c r="E161">
+        <v>260</v>
+      </c>
+      <c r="G161"/>
+      <c r="I161"/>
+      <c r="L161" t="s">
+        <v>132</v>
+      </c>
+      <c r="M161" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>41</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162">
+        <v>261</v>
+      </c>
+      <c r="G162"/>
+      <c r="I162"/>
+      <c r="L162" t="s">
+        <v>132</v>
+      </c>
+      <c r="M162" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>42</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" t="s">
+        <v>132</v>
+      </c>
+      <c r="D163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163">
+        <v>262</v>
+      </c>
+      <c r="G163"/>
+      <c r="I163"/>
+      <c r="L163" t="s">
+        <v>132</v>
+      </c>
+      <c r="M163" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>43</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" t="s">
+        <v>132</v>
+      </c>
+      <c r="D164" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164">
+        <v>263</v>
+      </c>
+      <c r="G164"/>
+      <c r="I164"/>
+      <c r="L164" t="s">
+        <v>132</v>
+      </c>
+      <c r="M164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>44</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" t="s">
+        <v>132</v>
+      </c>
+      <c r="D165" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165">
+        <v>264</v>
+      </c>
+      <c r="G165"/>
+      <c r="I165"/>
+      <c r="L165" t="s">
+        <v>132</v>
+      </c>
+      <c r="M165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>45</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166">
+        <v>265</v>
+      </c>
+      <c r="G166"/>
+      <c r="I166"/>
+      <c r="L166" t="s">
+        <v>132</v>
+      </c>
+      <c r="M166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>46</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" t="s">
+        <v>132</v>
+      </c>
+      <c r="D167" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167">
+        <v>266</v>
+      </c>
+      <c r="G167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I169"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J122">
-    <sortCondition ref="I2:I122"/>
-    <sortCondition ref="J2:J122"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:M170">
+    <sortCondition ref="L2:L170"/>
+    <sortCondition ref="M2:M170"/>
   </sortState>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M167 M171:M1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
